--- a/biology/Biochimie/Classe_ATC_H/Classe_ATC_H.xlsx
+++ b/biology/Biochimie/Classe_ATC_H/Classe_ATC_H.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC H, dénommée « Hormones systémiques, à l'exclusion des hormones sexuelles et insulines », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QH[2]. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC H, dénommée « Hormones systémiques, à l'exclusion des hormones sexuelles et insulines », est un groupe anatomique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QH. Le groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>H Préparations systémiques hormonales, à l'exclusion des hormones sexuelles et des insulines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>H01 Hormones hypophysaires, de l'hypothalamus et analogues
 H02 Corticostéroïdes (usage systémique)
